--- a/files/Seed.xlsx
+++ b/files/Seed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Hochschule der Medien_M.Sc. Data Science\Master\Repository\ml-classification-repo\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09071980-C921-49C5-9934-9AD156279A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0138B1-461D-4537-ACA3-78F06C9AE035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16725" yWindow="3360" windowWidth="27000" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="27000" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="384">
   <si>
     <t>URL</t>
   </si>
@@ -1102,13 +1102,88 @@
   </si>
   <si>
     <t>automotive service</t>
+  </si>
+  <si>
+    <t>KMEANS_CLASS</t>
+  </si>
+  <si>
+    <t>CONNTECTIVITY</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Autonomes_Fahren</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Selbstfahrendes_Kraftfahrzeug</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Elektromobilit%C3%A4t</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Elektroauto</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Connected_Car</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Vernetztes_Auto</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Mobility-as-a-Service</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Auto-Abo</t>
+  </si>
+  <si>
+    <t>https://www2.deloitte.com/de/de/pages/consumer-business/articles/nachhaltigkeit-deutsche-automobilindustrie-studie-2021.html</t>
+  </si>
+  <si>
+    <t>https://www.pwc.de/de/nachhaltigkeit/nachhaltigkeit-in-der-automobilindustrie.html</t>
+  </si>
+  <si>
+    <t>https://weissenberg-group.de/die-digitale-transformation-der-automobilindustrie/</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Digitalisierung</t>
+  </si>
+  <si>
+    <t>https://www.automobilwoche.de/agenturmeldungen/personalisierung-des-autos-ab-werk</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Mass_Customization</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Self-driving_car</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Electric_car</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Vehicle_subscription</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Green_vehicle</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1937-5956.2010.01132.x</t>
+  </si>
+  <si>
+    <t>KMEANS_URL</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>KMEANS_LANG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1123,6 +1198,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1146,9 +1228,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1430,21 +1515,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C91" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115:D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="53.28515625" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
     <col min="5" max="5" width="44.85546875" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="84.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>336</v>
       </c>
@@ -1463,8 +1553,17 @@
       <c r="F1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>359</v>
+      </c>
+      <c r="H1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>335</v>
       </c>
@@ -1483,8 +1582,17 @@
       <c r="F2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>335</v>
       </c>
@@ -1503,8 +1611,17 @@
       <c r="F3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="I3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>335</v>
       </c>
@@ -1523,8 +1640,17 @@
       <c r="F4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>335</v>
       </c>
@@ -1543,8 +1669,17 @@
       <c r="F5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" t="s">
+        <v>364</v>
+      </c>
+      <c r="I5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>335</v>
       </c>
@@ -1563,8 +1698,17 @@
       <c r="F6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" t="s">
+        <v>365</v>
+      </c>
+      <c r="I6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>335</v>
       </c>
@@ -1583,8 +1727,17 @@
       <c r="F7" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="I7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>335</v>
       </c>
@@ -1603,8 +1756,17 @@
       <c r="F8" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>212</v>
+      </c>
+      <c r="H8" t="s">
+        <v>367</v>
+      </c>
+      <c r="I8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>335</v>
       </c>
@@ -1623,8 +1785,17 @@
       <c r="F9" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>212</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="I9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>335</v>
       </c>
@@ -1643,8 +1814,17 @@
       <c r="F10" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>235</v>
+      </c>
+      <c r="H10" t="s">
+        <v>369</v>
+      </c>
+      <c r="I10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>335</v>
       </c>
@@ -1663,8 +1843,17 @@
       <c r="F11" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>235</v>
+      </c>
+      <c r="H11" t="s">
+        <v>370</v>
+      </c>
+      <c r="I11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>335</v>
       </c>
@@ -1683,8 +1872,17 @@
       <c r="F12" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H12" t="s">
+        <v>371</v>
+      </c>
+      <c r="I12" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>335</v>
       </c>
@@ -1703,8 +1901,17 @@
       <c r="F13" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>261</v>
+      </c>
+      <c r="H13" t="s">
+        <v>372</v>
+      </c>
+      <c r="I13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>335</v>
       </c>
@@ -1723,8 +1930,17 @@
       <c r="F14" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>288</v>
+      </c>
+      <c r="H14" t="s">
+        <v>373</v>
+      </c>
+      <c r="I14" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>335</v>
       </c>
@@ -1743,8 +1959,17 @@
       <c r="F15" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>288</v>
+      </c>
+      <c r="H15" t="s">
+        <v>374</v>
+      </c>
+      <c r="I15" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>335</v>
       </c>
@@ -1763,8 +1988,17 @@
       <c r="F16" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" t="s">
+        <v>375</v>
+      </c>
+      <c r="I16" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>335</v>
       </c>
@@ -1783,8 +2017,14 @@
       <c r="F17" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>131</v>
+      </c>
+      <c r="I17" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>335</v>
       </c>
@@ -1803,8 +2043,17 @@
       <c r="F18" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" t="s">
+        <v>376</v>
+      </c>
+      <c r="I18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>335</v>
       </c>
@@ -1823,8 +2072,14 @@
       <c r="F19" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>158</v>
+      </c>
+      <c r="I19" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>335</v>
       </c>
@@ -1843,8 +2098,17 @@
       <c r="F20" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>360</v>
+      </c>
+      <c r="H20" t="s">
+        <v>365</v>
+      </c>
+      <c r="I20" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>335</v>
       </c>
@@ -1863,8 +2127,14 @@
       <c r="F21" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>360</v>
+      </c>
+      <c r="I21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>335</v>
       </c>
@@ -1883,8 +2153,17 @@
       <c r="F22" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>212</v>
+      </c>
+      <c r="H22" t="s">
+        <v>377</v>
+      </c>
+      <c r="I22" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>335</v>
       </c>
@@ -1903,8 +2182,14 @@
       <c r="F23" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>212</v>
+      </c>
+      <c r="I23" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>335</v>
       </c>
@@ -1923,8 +2208,17 @@
       <c r="F24" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>235</v>
+      </c>
+      <c r="H24" t="s">
+        <v>378</v>
+      </c>
+      <c r="I24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>335</v>
       </c>
@@ -1943,8 +2237,14 @@
       <c r="F25" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>235</v>
+      </c>
+      <c r="I25" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>335</v>
       </c>
@@ -1963,8 +2263,14 @@
       <c r="F26" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>261</v>
+      </c>
+      <c r="I26" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>335</v>
       </c>
@@ -1983,8 +2289,14 @@
       <c r="F27" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>261</v>
+      </c>
+      <c r="I27" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>335</v>
       </c>
@@ -2003,8 +2315,17 @@
       <c r="F28" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>288</v>
+      </c>
+      <c r="H28" t="s">
+        <v>379</v>
+      </c>
+      <c r="I28" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>335</v>
       </c>
@@ -2023,8 +2344,14 @@
       <c r="F29" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>288</v>
+      </c>
+      <c r="I29" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>335</v>
       </c>
@@ -2044,7 +2371,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>335</v>
       </c>
@@ -2064,7 +2391,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>335</v>
       </c>

--- a/files/Seed.xlsx
+++ b/files/Seed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Hochschule der Medien_M.Sc. Data Science\Master\Repository\ml-classification-repo\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276DD781-CC1E-4452-BD6D-EE0179A1DA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906D8F46-56B8-4D6C-84B8-722F9E59A159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="942">
   <si>
     <t>CLASS_K</t>
   </si>
@@ -2776,9 +2776,6 @@
     <t>co2</t>
   </si>
   <si>
-    <t>emission</t>
-  </si>
-  <si>
     <t>battery cell</t>
   </si>
   <si>
@@ -2843,6 +2840,15 @@
   </si>
   <si>
     <t>custom painting</t>
+  </si>
+  <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <t>electro</t>
+  </si>
+  <si>
+    <t>netzero</t>
   </si>
 </sst>
 </file>
@@ -2898,7 +2904,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3208,8 +3214,8 @@
   </sheetPr>
   <dimension ref="A1:AT154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" topLeftCell="I14" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3321,7 +3327,7 @@
         <v>887</v>
       </c>
       <c r="L2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M2" t="s">
         <v>869</v>
@@ -3477,7 +3483,7 @@
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L5" t="s">
         <v>90</v>
@@ -3495,7 +3501,7 @@
         <v>30</v>
       </c>
       <c r="Q5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="6" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3548,7 +3554,7 @@
         <v>43</v>
       </c>
       <c r="Q6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="7" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3594,11 +3600,14 @@
       <c r="N7" t="s">
         <v>914</v>
       </c>
+      <c r="O7" t="s">
+        <v>939</v>
+      </c>
       <c r="P7" t="s">
         <v>419</v>
       </c>
       <c r="Q7" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="8" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3810,7 +3819,7 @@
         <v>107</v>
       </c>
       <c r="Q11" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="12" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3863,7 +3872,7 @@
         <v>390</v>
       </c>
       <c r="Q12" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="13" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3916,7 +3925,7 @@
         <v>120</v>
       </c>
       <c r="Q13" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="14" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3969,7 +3978,7 @@
         <v>94</v>
       </c>
       <c r="Q14" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="15" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4116,7 +4125,7 @@
         <v>211</v>
       </c>
       <c r="K17" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="L17" t="s">
         <v>213</v>
@@ -4649,7 +4658,7 @@
         <v>262</v>
       </c>
       <c r="L27" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M27" t="s">
         <v>368</v>
@@ -4763,11 +4772,14 @@
       <c r="N29" t="s">
         <v>399</v>
       </c>
+      <c r="O29" t="s">
+        <v>941</v>
+      </c>
       <c r="P29" t="s">
         <v>436</v>
       </c>
       <c r="Q29" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4925,7 +4937,7 @@
         <v>375</v>
       </c>
       <c r="K33" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L33" t="s">
         <v>367</v>
@@ -4987,7 +4999,7 @@
         <v>410</v>
       </c>
       <c r="Q34" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5013,7 +5025,7 @@
         <v>432</v>
       </c>
       <c r="K35" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="L35" t="s">
         <v>387</v>
@@ -5031,7 +5043,7 @@
         <v>400</v>
       </c>
       <c r="Q35" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5189,7 +5201,7 @@
         <v>424</v>
       </c>
       <c r="K39" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L39" t="s">
         <v>407</v>
@@ -5207,7 +5219,7 @@
         <v>445</v>
       </c>
       <c r="Q39" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5233,7 +5245,7 @@
         <v>464</v>
       </c>
       <c r="K40" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="L40" t="s">
         <v>434</v>
@@ -5271,7 +5283,7 @@
         <v>472</v>
       </c>
       <c r="K41" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L41" t="s">
         <v>916</v>
@@ -5309,7 +5321,7 @@
         <v>480</v>
       </c>
       <c r="K42" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="L42" t="s">
         <v>443</v>
@@ -6248,7 +6260,7 @@
         <v>693</v>
       </c>
       <c r="L75" t="s">
-        <v>917</v>
+        <v>940</v>
       </c>
       <c r="M75" t="s">
         <v>699</v>
@@ -7049,7 +7061,7 @@
     </row>
     <row r="132" spans="12:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L132" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="133" spans="12:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
